--- a/data/trans_orig/P21D_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F312673-DA23-400E-9E9D-575E7A6CCF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF6709C8-1840-4D7B-B974-BC3B3237390B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E40D390-7185-45DB-B76D-F807F86E4467}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD7ADE7F-90C4-4624-9675-C8871739C01C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>96,16%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,7 +215,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -236,7 +236,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,05%</t>
+    <t>99,23%</t>
   </si>
   <si>
     <t>99,92%</t>
@@ -245,16 +245,16 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,65%</t>
   </si>
   <si>
     <t>3,92%</t>
@@ -263,19 +263,19 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>97,59%</t>
@@ -284,16 +284,16 @@
     <t>96,08%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>98,35%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD749D88-D086-41DE-A73C-C110CDCCE0B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D02955-7BEE-42E1-92FE-9B432BF10F0D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1065,7 +1065,7 @@
         <v>2070</v>
       </c>
       <c r="N8" s="7">
-        <v>1876059</v>
+        <v>1876058</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1116,7 +1116,7 @@
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911465</v>
+        <v>1911464</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P21D_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF6709C8-1840-4D7B-B974-BC3B3237390B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21AEF4B-6EF1-4652-8315-6B6F2B466F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD7ADE7F-90C4-4624-9675-C8871739C01C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B42A4933-95DC-4B29-B043-48800546CA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D02955-7BEE-42E1-92FE-9B432BF10F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE04532-DCFB-4B9A-9640-81B4EA380AD4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21AEF4B-6EF1-4652-8315-6B6F2B466F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB22BD6-9924-46A5-B556-254445F3FA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B42A4933-95DC-4B29-B043-48800546CA0C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D78F259-FD74-499F-B894-D661EF840D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>96,16%</t>
   </si>
   <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>1,7%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,7 +215,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,95%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -236,7 +236,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,23%</t>
+    <t>99,05%</t>
   </si>
   <si>
     <t>99,92%</t>
@@ -245,16 +245,16 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>3,92%</t>
@@ -263,19 +263,19 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>97,59%</t>
@@ -284,16 +284,16 @@
     <t>96,08%</t>
   </si>
   <si>
-    <t>98,35%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE04532-DCFB-4B9A-9640-81B4EA380AD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A809BD1F-2492-45F1-A6FC-5965C31A6B22}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1065,7 +1065,7 @@
         <v>2070</v>
       </c>
       <c r="N8" s="7">
-        <v>1876058</v>
+        <v>1876059</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1116,7 +1116,7 @@
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911464</v>
+        <v>1911465</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P21D_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB22BD6-9924-46A5-B556-254445F3FA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA9BD1ED-D186-418D-BC01-26DD78649F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D78F259-FD74-499F-B894-D661EF840D0A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F9D709B5-592F-480D-95E3-9004EC1434FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>Población que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -71,121 +71,115 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -200,13 +194,13 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -215,7 +209,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,94%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -224,10 +218,10 @@
     <t>99,4%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>99,84%</t>
@@ -236,64 +230,58 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,05%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -708,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A809BD1F-2492-45F1-A6FC-5965C31A6B22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B6E751-FEA5-4752-9197-E6D1329670EA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -829,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>9226</v>
+        <v>9543</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -844,7 +832,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>19329</v>
+        <v>16283</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -859,7 +847,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>28555</v>
+        <v>25826</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -880,7 +868,7 @@
         <v>288</v>
       </c>
       <c r="D5" s="7">
-        <v>230765</v>
+        <v>221334</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -895,7 +883,7 @@
         <v>613</v>
       </c>
       <c r="I5" s="7">
-        <v>355939</v>
+        <v>321492</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -910,7 +898,7 @@
         <v>901</v>
       </c>
       <c r="N5" s="7">
-        <v>586704</v>
+        <v>542826</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -931,7 +919,7 @@
         <v>300</v>
       </c>
       <c r="D6" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -946,7 +934,7 @@
         <v>633</v>
       </c>
       <c r="I6" s="7">
-        <v>375268</v>
+        <v>337775</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -961,7 +949,7 @@
         <v>933</v>
       </c>
       <c r="N6" s="7">
-        <v>615259</v>
+        <v>568652</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -984,7 +972,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>16165</v>
+        <v>15944</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -993,37 +981,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>19241</v>
+        <v>18487</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
       </c>
       <c r="N7" s="7">
-        <v>35406</v>
+        <v>34431</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,46 +1023,46 @@
         <v>812</v>
       </c>
       <c r="D8" s="7">
-        <v>931964</v>
+        <v>1101189</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1258</v>
       </c>
       <c r="I8" s="7">
-        <v>944095</v>
+        <v>918826</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2070</v>
       </c>
       <c r="N8" s="7">
-        <v>1876059</v>
+        <v>2020015</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1086,7 +1074,7 @@
         <v>834</v>
       </c>
       <c r="D9" s="7">
-        <v>948129</v>
+        <v>1117133</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1101,7 +1089,7 @@
         <v>1291</v>
       </c>
       <c r="I9" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1116,7 +1104,7 @@
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911465</v>
+        <v>2054446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1130,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1142,43 +1130,43 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1798</v>
+        <v>1663</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>1798</v>
+        <v>1663</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1178,13 @@
         <v>318</v>
       </c>
       <c r="D11" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -1205,31 +1193,31 @@
         <v>439</v>
       </c>
       <c r="I11" s="7">
-        <v>335817</v>
+        <v>308965</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>757</v>
       </c>
       <c r="N11" s="7">
-        <v>660148</v>
+        <v>619148</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,7 +1229,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1256,7 +1244,7 @@
         <v>442</v>
       </c>
       <c r="I12" s="7">
-        <v>337615</v>
+        <v>310628</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1271,7 +1259,7 @@
         <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>661946</v>
+        <v>620811</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1294,46 +1282,46 @@
         <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>25391</v>
+        <v>25487</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
       </c>
       <c r="I13" s="7">
-        <v>40368</v>
+        <v>36433</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>65759</v>
+        <v>61921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,46 +1333,46 @@
         <v>1418</v>
       </c>
       <c r="D14" s="7">
-        <v>1487059</v>
+        <v>1632706</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>2310</v>
       </c>
       <c r="I14" s="7">
-        <v>1635851</v>
+        <v>1549283</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>3728</v>
       </c>
       <c r="N14" s="7">
-        <v>3122910</v>
+        <v>3181988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,7 +1384,7 @@
         <v>1452</v>
       </c>
       <c r="D15" s="7">
-        <v>1512450</v>
+        <v>1658193</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1411,7 +1399,7 @@
         <v>2366</v>
       </c>
       <c r="I15" s="7">
-        <v>1676219</v>
+        <v>1585716</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1426,7 +1414,7 @@
         <v>3818</v>
       </c>
       <c r="N15" s="7">
-        <v>3188669</v>
+        <v>3243909</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1440,7 +1428,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
